--- a/Attachments/Testing.xlsx
+++ b/Attachments/Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -45,40 +45,19 @@
     <t>Populate the field with the text provided</t>
   </si>
   <si>
-    <t>Steve Ndeke</t>
-  </si>
-  <si>
     <t>Blocker</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Create login Form</t>
-  </si>
-  <si>
-    <t>Create a login card and center align it</t>
-  </si>
-  <si>
-    <t>Anthony Njuguna</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
-    <t>Login Access Denied</t>
-  </si>
-  <si>
     <t>Ensure registered users are able to login</t>
   </si>
   <si>
-    <t>Mercy Omondi</t>
-  </si>
-  <si>
     <t>Minor</t>
+  </si>
+  <si>
+    <t>Penina Waithaka</t>
   </si>
 </sst>
 </file>
@@ -396,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,44 +418,24 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Attachments/Testing.xlsx
+++ b/Attachments/Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Penina Waithaka</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,6 +431,9 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>

--- a/Attachments/Testing.xlsx
+++ b/Attachments/Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Penina Waithaka</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -381,7 +378,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,9 +428,6 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>

--- a/Attachments/Testing.xlsx
+++ b/Attachments/Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Penina Waithaka</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -428,6 +431,9 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>

--- a/Attachments/Testing.xlsx
+++ b/Attachments/Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Bug</t>
   </si>
   <si>
-    <t>Ensure registered users are able to login</t>
-  </si>
-  <si>
     <t>Minor</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Login Failed</t>
+  </si>
+  <si>
+    <t>Anthony Njuguna</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Trivial</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +433,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -432,16 +444,30 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
